--- a/biology/Origine et évolution du vivant/Évolution_(film)/Évolution_(film).xlsx
+++ b/biology/Origine et évolution du vivant/Évolution_(film)/Évolution_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89volution_(film)</t>
+          <t>Évolution_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Évolution (Evolution) est une comédie de science-fiction américaine réalisée par Ivan Reitman et sortie en 2001.
 Malgré un budget de production important et de bons résultats au box-office, le film n'est cependant pas un succès.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89volution_(film)</t>
+          <t>Évolution_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un météore s'écrase dans le désert près de Glen Canyon dans l'Arizona. Ira Kane (David Duchovny), professeur dans un lycée, et son collègue professeur de géologie Harry Block (Orlando Jones), se rendent sur les lieux pour l'étudier. Ils rencontrent Wayne Grey (Seann William Scott), un pompier stagiaire dont la voiture a été endommagée lors de l'impact et découvrent le météore profondément enfoncé dans un réseau de tunnels souterrains. Les deux scientifiques prélèvent un échantillon de l'étrange liquide bleu qui suinte du météore. Ira découvre que le liquide contient des êtres unicellulaires extraterrestres se multipliant exponentiellement et évoluant de l'équivalent de millions d'années d'évolution en quelques minutes. Le lendemain, Ira et Harry emmènent la classe de science sur le site du météore et y trouvent une forme de vie plus évoluée composée de champignons évolués convertissant l'atmosphère et de vers plats. Ils découvrent par la suite que ces vers se reproduisent rapidement par mitose.
 Ira et Harry retrouvent bientôt le site bouclé par l'armée qui a mis en place une base sur le site et mis l'écosystème extraterrestre en quarantaine. Ils rencontrent le général Russell Woodman (Ted Levine) et la maladroite Dr Allison Reed (Julianne Moore). Cependant, à la suite d'un procès intenté par l'armée, ils sont interdits d'accès au site lorsque Woodman révèle qu'Ira a été libéré de l'armée à la suite de la création d'un vaccin contre la maladie du charbon destiné aux militaires qui a occasionné aux vaccinés d'épouvantables effets secondaires. Lorsque Woodman confisque leurs recherches, Ira et Harry infiltrent la base souterraine pour obtenir un autre échantillon et découvrent une forêt tropicale grouillante de vie. Reed les intercepte, mais ils sont interrompus lorsqu'un insecte entre dans le corps de Harry, qui doit être enlevé par voie rectale par un médecin.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89volution_(film)</t>
+          <t>Évolution_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Evolution
@@ -567,7 +583,7 @@
 Pays de production :  États-Unis
 Durée : 101 minutes
 Format : couleur (Technicolor) - 35 mm - 1,85:1 - DTS / Dolby Digital / SDDS
-Budget : 80 millions de dollars[1]
+Budget : 80 millions de dollars
 Dates de sortie :
 États-Unis : 8 juin 2001
 France : 18 juillet 2001
@@ -584,7 +600,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89volution_(film)</t>
+          <t>Évolution_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,7 +618,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>David Duchovny (VF : Georges Caudron) : Ira Kane
 Orlando Jones (VF : Lucien Jean-Baptiste) : Harry Block
@@ -629,7 +647,7 @@
 Morgan Nagler (VF : Céline Mauge) : la voleuse dans le vestiaire
 John Cho : l'étudiant
 Chris Wylde (VF : Cédric Dumond) : l'étudiant
-Source et légende : Version française (V. F.) sur AlloDoublage[2]</t>
+Source et légende : Version française (V. F.) sur AlloDoublage</t>
         </is>
       </c>
     </row>
@@ -639,7 +657,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89volution_(film)</t>
+          <t>Évolution_(film)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -657,14 +675,16 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le scénario est initialement développé par Don Jakoby. Les noms de Richard Donner, Steven Spielberg, Robert Zemeckis, John Landis ou encore Sam Raimi sont évoqués pour le poste de réalisateur. Ivan Reitman est finalement choisi[3]. Ce dernier provoque un changement de ton du scénario. Le projet est à l'origine un film lorgnant vers thriller dramatique. Ivan Reitman préfère quant à lui aller vers la comédie. Malgré l'humour, le scénario est fondé sur des théories réalistes comme la panspermie[4].
-Bruce Willis est envisagé pour le rôle d'Ira Kane, tout comme Charlie Sheen, Kevin Kline, Mark Wahlberg, Mike Myers et Kevin Costner. David Duchovny a refusé un rôle dans Star Wars, épisode II : L'Attaque des clones (2002) pour jouer dans Évolution[3].
-Sandra Bullock, Angie Everhart, Juliette Binoche, Lorraine Bracco sont envisagées pour le rôle du Dr. Allison Reed[3].
-Scott Bakula, Billy Crystal, Timothy Hutton a été envisagé pour le rôle de Wayne Grey[3]. John Malkovich, Ian McKellen, Liam Neeson, Richard E. Grant ont été évoqués pour incarner le général Russell Woodman[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le scénario est initialement développé par Don Jakoby. Les noms de Richard Donner, Steven Spielberg, Robert Zemeckis, John Landis ou encore Sam Raimi sont évoqués pour le poste de réalisateur. Ivan Reitman est finalement choisi. Ce dernier provoque un changement de ton du scénario. Le projet est à l'origine un film lorgnant vers thriller dramatique. Ivan Reitman préfère quant à lui aller vers la comédie. Malgré l'humour, le scénario est fondé sur des théories réalistes comme la panspermie.
+Bruce Willis est envisagé pour le rôle d'Ira Kane, tout comme Charlie Sheen, Kevin Kline, Mark Wahlberg, Mike Myers et Kevin Costner. David Duchovny a refusé un rôle dans Star Wars, épisode II : L'Attaque des clones (2002) pour jouer dans Évolution.
+Sandra Bullock, Angie Everhart, Juliette Binoche, Lorraine Bracco sont envisagées pour le rôle du Dr. Allison Reed.
+Scott Bakula, Billy Crystal, Timothy Hutton a été envisagé pour le rôle de Wayne Grey. John Malkovich, Ian McKellen, Liam Neeson, Richard E. Grant ont été évoqués pour incarner le général Russell Woodman.
 Ce film marque les débuts sur grand écran de Ty Burrell.
-Le tournage a lieu entre octobre 2000 et février 2001. Il se déroule dans l'Arizona (Page) et en Californie (Carson, Santa Clarita, Université d'État de Californie, Hawthorne, Manhattan Beach Studios, Universal Studios, Los Angeles, Pasadena)[5].
+Le tournage a lieu entre octobre 2000 et février 2001. Il se déroule dans l'Arizona (Page) et en Californie (Carson, Santa Clarita, Université d'État de Californie, Hawthorne, Manhattan Beach Studios, Universal Studios, Los Angeles, Pasadena).
 </t>
         </is>
       </c>
@@ -675,7 +695,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89volution_(film)</t>
+          <t>Évolution_(film)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -693,9 +713,11 @@
           <t>Musique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>La musique du film est composée par John Powell, dirigée par Gavin Greenaway et interprétée par le Hollywood Symphony Orchestra. L'album est publiée en juin par Varèse Sarabande[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La musique du film est composée par John Powell, dirigée par Gavin Greenaway et interprétée par le Hollywood Symphony Orchestra. L'album est publiée en juin par Varèse Sarabande.
 On peut par ailleurs entendre plusieurs chansons non originales dans le film :
 Bombshell de Powerman 5000
 Out with a Bang de Matt Mahaffey
@@ -716,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89volution_(film)</t>
+          <t>Évolution_(film)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -736,11 +758,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Critique
-Le film reçoit des critiques mitigées. Sur l'agrégateur américain Rotten Tomatoes, il récolte 44% d'opinions favorables pour 139 critiques et une note moyenne de 4,9⁄10. Le consensus suivant résume les critiques compilées par le site : « [7] ». Sur Metacritic, il obtient une note moyenne de 40⁄100 pour 32 critiques[8].
-En France, le film obtient une note moyenne de 3⁄5 sur le site AlloCiné, qui recense 12 titres de presse[9].
-Box-office
-Avec un budget estimé à 80 millions de dollars, le film ne récolte que 98 millions au box-office[1]. Le film peut difficilement être considéré comme rentable si l'on ajoute divers frais de promotion. Le film aurait cependant bien fonctionné sur le marché de la vidéo notamment en location[10].
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit des critiques mitigées. Sur l'agrégateur américain Rotten Tomatoes, il récolte 44% d'opinions favorables pour 139 critiques et une note moyenne de 4,9⁄10. Le consensus suivant résume les critiques compilées par le site : «  ». Sur Metacritic, il obtient une note moyenne de 40⁄100 pour 32 critiques.
+En France, le film obtient une note moyenne de 3⁄5 sur le site AlloCiné, qui recense 12 titres de presse.
 </t>
         </is>
       </c>
@@ -751,7 +776,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>%C3%89volution_(film)</t>
+          <t>Évolution_(film)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -766,12 +791,18 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Autour du film</t>
+          <t>Accueil</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le film a été sponsorisé par le shampooing Head &amp; Shoulders de Procter &amp; Gamble, les héros en font même la publicité à la fin du film.[réf. nécessaire]
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec un budget estimé à 80 millions de dollars, le film ne récolte que 98 millions au box-office. Le film peut difficilement être considéré comme rentable si l'on ajoute divers frais de promotion. Le film aurait cependant bien fonctionné sur le marché de la vidéo notamment en location.
 </t>
         </is>
       </c>
@@ -782,7 +813,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>%C3%89volution_(film)</t>
+          <t>Évolution_(film)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -797,12 +828,47 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Autour du film</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été sponsorisé par le shampooing Head &amp; Shoulders de Procter &amp; Gamble, les héros en font même la publicité à la fin du film.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Évolution_(film)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89volution_(film)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Adaptation télévisée</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film est adapté en série télévisée d'animation : Évolution (Alienators: Evolution Continues) est diffusée aux États-Unis à partir du 15 septembre 2001 sur Fox Kids et en France à partir du 14 novembre 2001 sur M6 dans l'émission M6 Kid[12].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est adapté en série télévisée d'animation : Évolution (Alienators: Evolution Continues) est diffusée aux États-Unis à partir du 15 septembre 2001 sur Fox Kids et en France à partir du 14 novembre 2001 sur M6 dans l'émission M6 Kid.
 La série d'animation est quant à elle adaptée en jeu vidéo, Alienators: Evolution Continues (2001) sur Game Boy Advance.
 </t>
         </is>
